--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2002,28 +2002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>333.1651397553505</v>
+        <v>421.1945113807813</v>
       </c>
       <c r="AB2" t="n">
-        <v>455.8512424218902</v>
+        <v>576.296912261591</v>
       </c>
       <c r="AC2" t="n">
-        <v>412.3454396363812</v>
+        <v>521.2959437931404</v>
       </c>
       <c r="AD2" t="n">
-        <v>333165.1397553505</v>
+        <v>421194.5113807812</v>
       </c>
       <c r="AE2" t="n">
-        <v>455851.2424218901</v>
+        <v>576296.9122615911</v>
       </c>
       <c r="AF2" t="n">
         <v>8.595157879900397e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.26171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>412345.4396363812</v>
+        <v>521295.9437931404</v>
       </c>
     </row>
     <row r="3">
@@ -2108,28 +2108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.1276700271162</v>
+        <v>253.578988081992</v>
       </c>
       <c r="AB3" t="n">
-        <v>253.29984538737</v>
+        <v>346.9579586090259</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.125263652239</v>
+        <v>313.8447779980373</v>
       </c>
       <c r="AD3" t="n">
-        <v>185127.6700271161</v>
+        <v>253578.988081992</v>
       </c>
       <c r="AE3" t="n">
-        <v>253299.84538737</v>
+        <v>346957.9586090259</v>
       </c>
       <c r="AF3" t="n">
         <v>1.309994345597587e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.97916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>229125.263652239</v>
+        <v>313844.7779980373</v>
       </c>
     </row>
     <row r="4">
@@ -2214,28 +2214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>159.8886281930238</v>
+        <v>218.5855903963323</v>
       </c>
       <c r="AB4" t="n">
-        <v>218.7666748820412</v>
+        <v>299.0784480957803</v>
       </c>
       <c r="AC4" t="n">
-        <v>197.8878904723185</v>
+        <v>270.5348207688456</v>
       </c>
       <c r="AD4" t="n">
-        <v>159888.6281930238</v>
+        <v>218585.5903963324</v>
       </c>
       <c r="AE4" t="n">
-        <v>218766.6748820412</v>
+        <v>299078.4480957803</v>
       </c>
       <c r="AF4" t="n">
         <v>1.476265918530224e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.63151041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>197887.8904723185</v>
+        <v>270534.8207688456</v>
       </c>
     </row>
     <row r="5">
@@ -2320,28 +2320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>156.2138658581091</v>
+        <v>205.0891524021458</v>
       </c>
       <c r="AB5" t="n">
-        <v>213.738702936341</v>
+        <v>280.612026211322</v>
       </c>
       <c r="AC5" t="n">
-        <v>193.3397811123114</v>
+        <v>253.8308082712481</v>
       </c>
       <c r="AD5" t="n">
-        <v>156213.8658581091</v>
+        <v>205089.1524021458</v>
       </c>
       <c r="AE5" t="n">
-        <v>213738.702936341</v>
+        <v>280612.026211322</v>
       </c>
       <c r="AF5" t="n">
         <v>1.518840312875452e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.33203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>193339.7811123114</v>
+        <v>253830.8082712481</v>
       </c>
     </row>
   </sheetData>
@@ -2617,28 +2617,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>254.7973966521317</v>
+        <v>332.1403046265146</v>
       </c>
       <c r="AB2" t="n">
-        <v>348.6250389670826</v>
+        <v>454.4490177860819</v>
       </c>
       <c r="AC2" t="n">
-        <v>315.3527545464837</v>
+        <v>411.0770413517798</v>
       </c>
       <c r="AD2" t="n">
-        <v>254797.3966521317</v>
+        <v>332140.3046265146</v>
       </c>
       <c r="AE2" t="n">
-        <v>348625.0389670826</v>
+        <v>454449.0177860819</v>
       </c>
       <c r="AF2" t="n">
         <v>1.113642595816987e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.42317708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>315352.7545464836</v>
+        <v>411077.0413517798</v>
       </c>
     </row>
     <row r="3">
@@ -2723,28 +2723,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>157.8524656339223</v>
+        <v>215.9015951157894</v>
       </c>
       <c r="AB3" t="n">
-        <v>215.9807074395276</v>
+        <v>295.4060873434285</v>
       </c>
       <c r="AC3" t="n">
-        <v>195.3678118523877</v>
+        <v>267.2129449725064</v>
       </c>
       <c r="AD3" t="n">
-        <v>157852.4656339223</v>
+        <v>215901.5951157894</v>
       </c>
       <c r="AE3" t="n">
-        <v>215980.7074395276</v>
+        <v>295406.0873434285</v>
       </c>
       <c r="AF3" t="n">
         <v>1.561969602271711e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.99609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>195367.8118523877</v>
+        <v>267212.9449725064</v>
       </c>
     </row>
     <row r="4">
@@ -2829,28 +2829,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>151.5587021034749</v>
+        <v>199.8941280463104</v>
       </c>
       <c r="AB4" t="n">
-        <v>207.3693025159231</v>
+        <v>273.5039646993723</v>
       </c>
       <c r="AC4" t="n">
-        <v>187.5782673285066</v>
+        <v>247.4011301737697</v>
       </c>
       <c r="AD4" t="n">
-        <v>151558.7021034749</v>
+        <v>199894.1280463104</v>
       </c>
       <c r="AE4" t="n">
-        <v>207369.3025159231</v>
+        <v>273503.9646993722</v>
       </c>
       <c r="AF4" t="n">
         <v>1.651708863036535e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.39713541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>187578.2673285066</v>
+        <v>247401.1301737697</v>
       </c>
     </row>
   </sheetData>
@@ -3126,28 +3126,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.2292150468121</v>
+        <v>207.2606202586852</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.9184837890542</v>
+        <v>283.5831243310384</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.1704741082018</v>
+        <v>256.5183489563822</v>
       </c>
       <c r="AD2" t="n">
-        <v>151229.2150468121</v>
+        <v>207260.6202586852</v>
       </c>
       <c r="AE2" t="n">
-        <v>206918.4837890542</v>
+        <v>283583.1243310384</v>
       </c>
       <c r="AF2" t="n">
         <v>2.101710696450595e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.40625</v>
       </c>
       <c r="AH2" t="n">
-        <v>187170.4741082018</v>
+        <v>256518.3489563823</v>
       </c>
     </row>
   </sheetData>
@@ -3423,28 +3423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.4534327830042</v>
+        <v>231.2815337461723</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.6948830758716</v>
+        <v>316.4495978925131</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.914178445552</v>
+        <v>286.2480924095455</v>
       </c>
       <c r="AD2" t="n">
-        <v>174453.4327830042</v>
+        <v>231281.5337461723</v>
       </c>
       <c r="AE2" t="n">
-        <v>238694.8830758716</v>
+        <v>316449.597892513</v>
       </c>
       <c r="AF2" t="n">
         <v>1.727135657571915e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.01822916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>215914.178445552</v>
+        <v>286248.0924095455</v>
       </c>
     </row>
     <row r="3">
@@ -3529,28 +3529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.6639866690492</v>
+        <v>201.5252420211409</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.9356486851691</v>
+        <v>275.7357267994042</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.0449481791404</v>
+        <v>249.4198960312731</v>
       </c>
       <c r="AD3" t="n">
-        <v>144663.9866690492</v>
+        <v>201525.2420211409</v>
       </c>
       <c r="AE3" t="n">
-        <v>197935.6486851691</v>
+        <v>275735.7267994042</v>
       </c>
       <c r="AF3" t="n">
         <v>1.921345953138865e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.80729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>179044.9481791404</v>
+        <v>249419.8960312731</v>
       </c>
     </row>
   </sheetData>
@@ -3826,28 +3826,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.4566415030428</v>
+        <v>214.8967808424007</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.1756116349017</v>
+        <v>294.0312561253016</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.3532374719234</v>
+        <v>265.9693257162493</v>
       </c>
       <c r="AD2" t="n">
-        <v>159456.6415030428</v>
+        <v>214896.7808424007</v>
       </c>
       <c r="AE2" t="n">
-        <v>218175.6116349017</v>
+        <v>294031.2561253016</v>
       </c>
       <c r="AF2" t="n">
         <v>2.23955271337953e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.25911458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>197353.2374719234</v>
+        <v>265969.3257162494</v>
       </c>
     </row>
   </sheetData>
@@ -4123,28 +4123,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>274.8299300675645</v>
+        <v>352.4340398504742</v>
       </c>
       <c r="AB2" t="n">
-        <v>376.0344349592432</v>
+        <v>482.2158016159146</v>
       </c>
       <c r="AC2" t="n">
-        <v>340.1462362543763</v>
+        <v>436.1938023038192</v>
       </c>
       <c r="AD2" t="n">
-        <v>274829.9300675645</v>
+        <v>352434.0398504742</v>
       </c>
       <c r="AE2" t="n">
-        <v>376034.4349592432</v>
+        <v>482215.8016159146</v>
       </c>
       <c r="AF2" t="n">
         <v>1.044807492647632e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>340146.2362543764</v>
+        <v>436193.8023038192</v>
       </c>
     </row>
     <row r="3">
@@ -4229,28 +4229,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.7772417064848</v>
+        <v>229.9293286729594</v>
       </c>
       <c r="AB3" t="n">
-        <v>235.033200379762</v>
+        <v>314.5994512562664</v>
       </c>
       <c r="AC3" t="n">
-        <v>212.601961606754</v>
+        <v>284.5745211715646</v>
       </c>
       <c r="AD3" t="n">
-        <v>171777.2417064848</v>
+        <v>229929.3286729594</v>
       </c>
       <c r="AE3" t="n">
-        <v>235033.200379762</v>
+        <v>314599.4512562664</v>
       </c>
       <c r="AF3" t="n">
         <v>1.49350145910014e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.22395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>212601.961606754</v>
+        <v>284574.5211715646</v>
       </c>
     </row>
     <row r="4">
@@ -4335,28 +4335,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.7575962839535</v>
+        <v>201.2349199703822</v>
       </c>
       <c r="AB4" t="n">
-        <v>209.0096824251314</v>
+        <v>275.3384953614514</v>
       </c>
       <c r="AC4" t="n">
-        <v>189.0620916814682</v>
+        <v>249.0605758042405</v>
       </c>
       <c r="AD4" t="n">
-        <v>152757.5962839535</v>
+        <v>201234.9199703822</v>
       </c>
       <c r="AE4" t="n">
-        <v>209009.6824251314</v>
+        <v>275338.4953614514</v>
       </c>
       <c r="AF4" t="n">
         <v>1.614227447434847e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.38411458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>189062.0916814682</v>
+        <v>249060.5758042405</v>
       </c>
     </row>
   </sheetData>
@@ -4632,28 +4632,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.7178167170655</v>
+        <v>223.8217725069122</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.847160136936</v>
+        <v>306.2428234635233</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.8154311695575</v>
+        <v>277.0154382067575</v>
       </c>
       <c r="AD2" t="n">
-        <v>168717.8167170656</v>
+        <v>223821.7725069122</v>
       </c>
       <c r="AE2" t="n">
-        <v>230847.160136936</v>
+        <v>306242.8234635234</v>
       </c>
       <c r="AF2" t="n">
         <v>2.305595918441659e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.02734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>208815.4311695575</v>
+        <v>277015.4382067575</v>
       </c>
     </row>
   </sheetData>
@@ -4929,28 +4929,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.4820503834952</v>
+        <v>274.6011568686491</v>
       </c>
       <c r="AB2" t="n">
-        <v>283.8860947966109</v>
+        <v>375.7214173757259</v>
       </c>
       <c r="AC2" t="n">
-        <v>256.7924043459423</v>
+        <v>339.863092629707</v>
       </c>
       <c r="AD2" t="n">
-        <v>207482.0503834952</v>
+        <v>274601.1568686491</v>
       </c>
       <c r="AE2" t="n">
-        <v>283886.0947966109</v>
+        <v>375721.4173757259</v>
       </c>
       <c r="AF2" t="n">
         <v>1.36992237054298e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.6328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>256792.4043459423</v>
+        <v>339863.092629707</v>
       </c>
     </row>
     <row r="3">
@@ -5035,28 +5035,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.4854801906845</v>
+        <v>205.9819774734613</v>
       </c>
       <c r="AB3" t="n">
-        <v>203.1643847138635</v>
+        <v>281.8336288625574</v>
       </c>
       <c r="AC3" t="n">
-        <v>183.7746609798349</v>
+        <v>254.9358228799801</v>
       </c>
       <c r="AD3" t="n">
-        <v>148485.4801906845</v>
+        <v>205981.9774734612</v>
       </c>
       <c r="AE3" t="n">
-        <v>203164.3847138635</v>
+        <v>281833.6288625574</v>
       </c>
       <c r="AF3" t="n">
         <v>1.762332662442197e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.59895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>183774.6609798349</v>
+        <v>254935.8228799801</v>
       </c>
     </row>
     <row r="4">
@@ -5141,28 +5141,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.314606834665</v>
+        <v>196.2909911714104</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.9305882497572</v>
+        <v>268.5739938679563</v>
       </c>
       <c r="AC4" t="n">
-        <v>183.5631777221275</v>
+        <v>242.941668839245</v>
       </c>
       <c r="AD4" t="n">
-        <v>148314.606834665</v>
+        <v>196290.9911714104</v>
       </c>
       <c r="AE4" t="n">
-        <v>202930.5882497572</v>
+        <v>268573.9938679563</v>
       </c>
       <c r="AF4" t="n">
         <v>1.769847573375433e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.55338541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>183563.1777221275</v>
+        <v>242941.668839245</v>
       </c>
     </row>
   </sheetData>
@@ -5438,28 +5438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.4749894163613</v>
+        <v>312.649547465023</v>
       </c>
       <c r="AB2" t="n">
-        <v>322.1872689426701</v>
+        <v>427.7809039662097</v>
       </c>
       <c r="AC2" t="n">
-        <v>291.4381681875493</v>
+        <v>386.9540948859434</v>
       </c>
       <c r="AD2" t="n">
-        <v>235474.9894163613</v>
+        <v>312649.547465023</v>
       </c>
       <c r="AE2" t="n">
-        <v>322187.2689426701</v>
+        <v>427780.9039662097</v>
       </c>
       <c r="AF2" t="n">
         <v>1.188498951799535e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.83072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>291438.1681875493</v>
+        <v>386954.0948859435</v>
       </c>
     </row>
     <row r="3">
@@ -5544,28 +5544,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.8888483495068</v>
+        <v>211.7612255313049</v>
       </c>
       <c r="AB3" t="n">
-        <v>210.5575114085396</v>
+        <v>289.7410510177251</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.462198039092</v>
+        <v>262.0885717627979</v>
       </c>
       <c r="AD3" t="n">
-        <v>153888.8483495069</v>
+        <v>211761.225531305</v>
       </c>
       <c r="AE3" t="n">
-        <v>210557.5114085396</v>
+        <v>289741.0510177251</v>
       </c>
       <c r="AF3" t="n">
         <v>1.634896753915138e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.78125</v>
       </c>
       <c r="AH3" t="n">
-        <v>190462.198039092</v>
+        <v>262088.5717627979</v>
       </c>
     </row>
     <row r="4">
@@ -5650,28 +5650,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.7505287582504</v>
+        <v>198.938661117695</v>
       </c>
       <c r="AB4" t="n">
-        <v>206.2635240908959</v>
+        <v>272.1966526954154</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.5780228443938</v>
+        <v>246.2185861926461</v>
       </c>
       <c r="AD4" t="n">
-        <v>150750.5287582504</v>
+        <v>198938.661117695</v>
       </c>
       <c r="AE4" t="n">
-        <v>206263.5240908959</v>
+        <v>272196.6526954154</v>
       </c>
       <c r="AF4" t="n">
         <v>1.681707877147664e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.48177083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>186578.0228443938</v>
+        <v>246218.5861926462</v>
       </c>
     </row>
   </sheetData>
@@ -5947,28 +5947,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>309.7456584186015</v>
+        <v>397.6111732095422</v>
       </c>
       <c r="AB2" t="n">
-        <v>423.8076748623527</v>
+        <v>544.0291485522511</v>
       </c>
       <c r="AC2" t="n">
-        <v>383.3600651912965</v>
+        <v>492.107770164129</v>
       </c>
       <c r="AD2" t="n">
-        <v>309745.6584186015</v>
+        <v>397611.1732095422</v>
       </c>
       <c r="AE2" t="n">
-        <v>423807.6748623527</v>
+        <v>544029.148552251</v>
       </c>
       <c r="AF2" t="n">
         <v>9.149436375978804e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.51302083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>383360.0651912965</v>
+        <v>492107.770164129</v>
       </c>
     </row>
     <row r="3">
@@ -6053,28 +6053,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.1648831851817</v>
+        <v>239.7418930458081</v>
       </c>
       <c r="AB3" t="n">
-        <v>247.8777856044212</v>
+        <v>328.0254347309789</v>
       </c>
       <c r="AC3" t="n">
-        <v>224.2206776450643</v>
+        <v>296.7191476269409</v>
       </c>
       <c r="AD3" t="n">
-        <v>181164.8831851817</v>
+        <v>239741.8930458081</v>
       </c>
       <c r="AE3" t="n">
-        <v>247877.7856044212</v>
+        <v>328025.4347309789</v>
       </c>
       <c r="AF3" t="n">
         <v>1.362533818992771e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.7578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>224220.6776450643</v>
+        <v>296719.1476269409</v>
       </c>
     </row>
     <row r="4">
@@ -6159,28 +6159,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>156.4489665879867</v>
+        <v>205.1958216641375</v>
       </c>
       <c r="AB4" t="n">
-        <v>214.0603781268714</v>
+        <v>280.7579758014947</v>
       </c>
       <c r="AC4" t="n">
-        <v>193.6307560741317</v>
+        <v>253.9628286373764</v>
       </c>
       <c r="AD4" t="n">
-        <v>156448.9665879867</v>
+        <v>205195.8216641375</v>
       </c>
       <c r="AE4" t="n">
-        <v>214060.3781268714</v>
+        <v>280757.9758014947</v>
       </c>
       <c r="AF4" t="n">
         <v>1.53132153833766e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.46223958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>193630.7560741317</v>
+        <v>253962.8286373764</v>
       </c>
     </row>
     <row r="5">
@@ -6265,28 +6265,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>155.6422515565422</v>
+        <v>204.3891066326931</v>
       </c>
       <c r="AB5" t="n">
-        <v>212.9565950310943</v>
+        <v>279.6541927057177</v>
       </c>
       <c r="AC5" t="n">
-        <v>192.6323164878459</v>
+        <v>252.9643890510906</v>
       </c>
       <c r="AD5" t="n">
-        <v>155642.2515565422</v>
+        <v>204389.1066326931</v>
       </c>
       <c r="AE5" t="n">
-        <v>212956.5950310943</v>
+        <v>279654.1927057176</v>
       </c>
       <c r="AF5" t="n">
         <v>1.542446071604486e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>192632.3164878459</v>
+        <v>252964.3890510906</v>
       </c>
     </row>
   </sheetData>
@@ -6562,28 +6562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.0792254760176</v>
+        <v>248.6832539816783</v>
       </c>
       <c r="AB2" t="n">
-        <v>249.1288290646772</v>
+        <v>340.259399228435</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.3523232733244</v>
+        <v>307.7855197232406</v>
       </c>
       <c r="AD2" t="n">
-        <v>182079.2254760176</v>
+        <v>248683.2539816783</v>
       </c>
       <c r="AE2" t="n">
-        <v>249128.8290646772</v>
+        <v>340259.399228435</v>
       </c>
       <c r="AF2" t="n">
         <v>1.590015414455774e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.56510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>225352.3232733244</v>
+        <v>307785.5197232406</v>
       </c>
     </row>
     <row r="3">
@@ -6668,28 +6668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.8224044035887</v>
+        <v>202.9066909200435</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.5206469353488</v>
+        <v>277.6258861281058</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.4786764208825</v>
+        <v>251.1296612064993</v>
       </c>
       <c r="AD3" t="n">
-        <v>145822.4044035887</v>
+        <v>202906.6909200435</v>
       </c>
       <c r="AE3" t="n">
-        <v>199520.6469353488</v>
+        <v>277625.8861281058</v>
       </c>
       <c r="AF3" t="n">
         <v>1.86618632151294e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>180478.6764208825</v>
+        <v>251129.6612064993</v>
       </c>
     </row>
   </sheetData>
@@ -6965,28 +6965,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.0414693182793</v>
+        <v>209.3455843036742</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.3980900342903</v>
+        <v>286.4358641195129</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.4134302135425</v>
+        <v>259.098827263291</v>
       </c>
       <c r="AD2" t="n">
-        <v>153041.4693182793</v>
+        <v>209345.5843036742</v>
       </c>
       <c r="AE2" t="n">
-        <v>209398.0900342903</v>
+        <v>286435.8641195128</v>
       </c>
       <c r="AF2" t="n">
         <v>2.01690076455033e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.26302083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>189413.4302135425</v>
+        <v>259098.827263291</v>
       </c>
     </row>
     <row r="3">
@@ -7071,28 +7071,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.3337119242928</v>
+        <v>199.3052243786026</v>
       </c>
       <c r="AB3" t="n">
-        <v>208.4297051437859</v>
+        <v>272.6982007206187</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.5374666178509</v>
+        <v>246.6722671782512</v>
       </c>
       <c r="AD3" t="n">
-        <v>152333.7119242928</v>
+        <v>199305.2243786026</v>
       </c>
       <c r="AE3" t="n">
-        <v>208429.7051437859</v>
+        <v>272698.2007206187</v>
       </c>
       <c r="AF3" t="n">
         <v>2.039996512870413e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.1328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>188537.4666178509</v>
+        <v>246672.2671782512</v>
       </c>
     </row>
   </sheetData>
@@ -11917,28 +11917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.443745400356</v>
+        <v>206.279549906269</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.8437695662983</v>
+        <v>282.240780593094</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.1983291024945</v>
+        <v>255.3041166207955</v>
       </c>
       <c r="AD2" t="n">
-        <v>150443.745400356</v>
+        <v>206279.549906269</v>
       </c>
       <c r="AE2" t="n">
-        <v>205843.7695662983</v>
+        <v>282240.780593094</v>
       </c>
       <c r="AF2" t="n">
         <v>2.172325465445532e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.74479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>186198.3291024945</v>
+        <v>255304.1166207955</v>
       </c>
     </row>
   </sheetData>
@@ -12214,28 +12214,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>178.8779452323793</v>
+        <v>242.6346335899966</v>
       </c>
       <c r="AB2" t="n">
-        <v>244.7486962048167</v>
+        <v>331.9834099622415</v>
       </c>
       <c r="AC2" t="n">
-        <v>221.3902241460525</v>
+        <v>300.2993792571863</v>
       </c>
       <c r="AD2" t="n">
-        <v>178877.9452323793</v>
+        <v>242634.6335899966</v>
       </c>
       <c r="AE2" t="n">
-        <v>244748.6962048167</v>
+        <v>331983.4099622415</v>
       </c>
       <c r="AF2" t="n">
         <v>2.345677640100003e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.38151041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>221390.2241460525</v>
+        <v>300299.3792571863</v>
       </c>
     </row>
   </sheetData>
@@ -12511,28 +12511,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.4588616002477</v>
+        <v>292.7345881380664</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.4827609842974</v>
+        <v>400.5323780290697</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.0415992343216</v>
+        <v>362.3061300206978</v>
       </c>
       <c r="AD2" t="n">
-        <v>225458.8616002477</v>
+        <v>292734.5881380665</v>
       </c>
       <c r="AE2" t="n">
-        <v>308482.7609842974</v>
+        <v>400532.3780290697</v>
       </c>
       <c r="AF2" t="n">
         <v>1.278745137765219e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.17317708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>279041.5992343216</v>
+        <v>362306.1300206978</v>
       </c>
     </row>
     <row r="3">
@@ -12617,28 +12617,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.3596375357455</v>
+        <v>208.0480832702671</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.7286894753613</v>
+        <v>284.6605659639003</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.0942320939205</v>
+        <v>257.492961072003</v>
       </c>
       <c r="AD3" t="n">
-        <v>150359.6375357455</v>
+        <v>208048.0832702671</v>
       </c>
       <c r="AE3" t="n">
-        <v>205728.6894753613</v>
+        <v>284660.5659639003</v>
       </c>
       <c r="AF3" t="n">
         <v>1.707703096355058e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.61197916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>186094.2320939205</v>
+        <v>257492.9610720029</v>
       </c>
     </row>
     <row r="4">
@@ -12723,28 +12723,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.2788319169866</v>
+        <v>197.3136880703675</v>
       </c>
       <c r="AB4" t="n">
-        <v>204.2498835459974</v>
+        <v>269.9732928833116</v>
       </c>
       <c r="AC4" t="n">
-        <v>184.7565613269375</v>
+        <v>244.2074207205038</v>
       </c>
       <c r="AD4" t="n">
-        <v>149278.8319169866</v>
+        <v>197313.6880703675</v>
       </c>
       <c r="AE4" t="n">
-        <v>204249.8835459974</v>
+        <v>269973.2928833116</v>
       </c>
       <c r="AF4" t="n">
         <v>1.728414675379709e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.48828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>184756.5613269375</v>
+        <v>244207.4207205038</v>
       </c>
     </row>
   </sheetData>
@@ -13020,28 +13020,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>287.4645230503796</v>
+        <v>375.0573167682381</v>
       </c>
       <c r="AB2" t="n">
-        <v>393.3216424772339</v>
+        <v>513.1699671633365</v>
       </c>
       <c r="AC2" t="n">
-        <v>355.7835769495983</v>
+        <v>464.1937457358395</v>
       </c>
       <c r="AD2" t="n">
-        <v>287464.5230503796</v>
+        <v>375057.3167682381</v>
       </c>
       <c r="AE2" t="n">
-        <v>393321.6424772339</v>
+        <v>513169.9671633366</v>
       </c>
       <c r="AF2" t="n">
         <v>9.747099204759423e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.80338541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>355783.5769495983</v>
+        <v>464193.7457358395</v>
       </c>
     </row>
     <row r="3">
@@ -13126,28 +13126,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.5919467389082</v>
+        <v>235.009919496667</v>
       </c>
       <c r="AB3" t="n">
-        <v>241.6208922149153</v>
+        <v>321.5509397611078</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.5609333790458</v>
+        <v>290.8625693699815</v>
       </c>
       <c r="AD3" t="n">
-        <v>176591.9467389082</v>
+        <v>235009.919496667</v>
       </c>
       <c r="AE3" t="n">
-        <v>241620.8922149153</v>
+        <v>321550.9397611078</v>
       </c>
       <c r="AF3" t="n">
         <v>1.423490526200252e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.50390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>218560.9333790459</v>
+        <v>290862.5693699815</v>
       </c>
     </row>
     <row r="4">
@@ -13232,28 +13232,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>154.3032721073515</v>
+        <v>202.917596264446</v>
       </c>
       <c r="AB4" t="n">
-        <v>211.1245442771082</v>
+        <v>277.6408073014272</v>
       </c>
       <c r="AC4" t="n">
-        <v>190.9751140865203</v>
+        <v>251.1431583239809</v>
       </c>
       <c r="AD4" t="n">
-        <v>154303.2721073515</v>
+        <v>202917.596264446</v>
       </c>
       <c r="AE4" t="n">
-        <v>211124.5442771082</v>
+        <v>277640.8073014272</v>
       </c>
       <c r="AF4" t="n">
         <v>1.574090239583551e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.40364583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>190975.1140865203</v>
+        <v>251143.1583239809</v>
       </c>
     </row>
     <row r="5">
@@ -13338,28 +13338,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>154.3764447675466</v>
+        <v>202.9907689246411</v>
       </c>
       <c r="AB5" t="n">
-        <v>211.224662338937</v>
+        <v>277.740925363256</v>
       </c>
       <c r="AC5" t="n">
-        <v>191.0656770210447</v>
+        <v>251.2337212585054</v>
       </c>
       <c r="AD5" t="n">
-        <v>154376.4447675466</v>
+        <v>202990.7689246411</v>
       </c>
       <c r="AE5" t="n">
-        <v>211224.6623389371</v>
+        <v>277740.925363256</v>
       </c>
       <c r="AF5" t="n">
         <v>1.573360760430701e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.41015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>191065.6770210447</v>
+        <v>251233.7212585054</v>
       </c>
     </row>
   </sheetData>
@@ -13635,28 +13635,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.1590270298371</v>
+        <v>291.3245660229887</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.5488523440087</v>
+        <v>398.6031235654351</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.1055934537301</v>
+        <v>360.5610008953468</v>
       </c>
       <c r="AD2" t="n">
-        <v>210159.0270298371</v>
+        <v>291324.5660229888</v>
       </c>
       <c r="AE2" t="n">
-        <v>287548.8523440086</v>
+        <v>398603.1235654351</v>
       </c>
       <c r="AF2" t="n">
         <v>2.288959551226997e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.35677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>260105.5934537301</v>
+        <v>360561.0008953468</v>
       </c>
     </row>
   </sheetData>
@@ -13932,28 +13932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.5316368290758</v>
+        <v>214.088798765677</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.5417353147689</v>
+        <v>292.9257394022753</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.9707346111145</v>
+        <v>264.9693179576659</v>
       </c>
       <c r="AD2" t="n">
-        <v>157531.6368290758</v>
+        <v>214088.798765677</v>
       </c>
       <c r="AE2" t="n">
-        <v>215541.7353147689</v>
+        <v>292925.7394022753</v>
       </c>
       <c r="AF2" t="n">
         <v>1.886722649382306e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.47786458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>194970.7346111145</v>
+        <v>264969.3179576658</v>
       </c>
     </row>
     <row r="3">
@@ -14038,28 +14038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.0097828658209</v>
+        <v>200.6342646101265</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.0405381801578</v>
+        <v>274.5166521985057</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.2352657644316</v>
+        <v>248.317168199302</v>
       </c>
       <c r="AD3" t="n">
-        <v>144009.7828658209</v>
+        <v>200634.2646101265</v>
       </c>
       <c r="AE3" t="n">
-        <v>197040.5381801578</v>
+        <v>274516.6521985057</v>
       </c>
       <c r="AF3" t="n">
         <v>1.971226106020895e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>178235.2657644316</v>
+        <v>248317.168199302</v>
       </c>
     </row>
   </sheetData>
@@ -14335,28 +14335,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.5799208975015</v>
+        <v>255.8764542033103</v>
       </c>
       <c r="AB2" t="n">
-        <v>271.7058084996453</v>
+        <v>350.1014531132636</v>
       </c>
       <c r="AC2" t="n">
-        <v>245.774587478016</v>
+        <v>316.6882617987139</v>
       </c>
       <c r="AD2" t="n">
-        <v>198579.9208975015</v>
+        <v>255876.4542033102</v>
       </c>
       <c r="AE2" t="n">
-        <v>271705.8084996453</v>
+        <v>350101.4531132636</v>
       </c>
       <c r="AF2" t="n">
         <v>1.482150592336305e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.01432291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>245774.587478016</v>
+        <v>316688.2617987139</v>
       </c>
     </row>
     <row r="3">
@@ -14441,28 +14441,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.116898469828</v>
+        <v>204.4124207457796</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.2918308258243</v>
+        <v>279.6860921037885</v>
       </c>
       <c r="AC3" t="n">
-        <v>182.0808210067237</v>
+        <v>252.9932440153808</v>
       </c>
       <c r="AD3" t="n">
-        <v>147116.898469828</v>
+        <v>204412.4207457796</v>
       </c>
       <c r="AE3" t="n">
-        <v>201291.8308258243</v>
+        <v>279686.0921037885</v>
       </c>
       <c r="AF3" t="n">
         <v>1.813140130395419e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.63802083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>182080.8210067237</v>
+        <v>252993.2440153808</v>
       </c>
     </row>
   </sheetData>
